--- a/project/scrum/记·得 小组项目/用户故事拆分.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事拆分.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreeFront\SoftWare\Group\software-engineering\project\scrum\记·得 小组项目\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E04E3C-5497-4B2C-84F1-F54D34E8850E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,510 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>初始需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初次分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望将孩子的照片分类保存，这样可以记录不同场景下孩子的样子，以便于今后和孩子一起回忆经历的各种美好瞬间；作为男（女）朋友，我希望将和对方在一起的所有甜蜜时刻的照片分类保存，这样可以记录不同场景下对方的样子，以便于和对方一起回忆经历的各种美好瞬间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望能够记录孩子或者和孩子有关的语音信息，这样可以实时记录和孩子经历的事件，以便于日后回忆，也可以把相对孩子说的话存储下来，等他长大了让他听，从而知道爸爸妈妈有多爱他；作为男（女）朋友，我希望能够记录和对方有关的有关的语音信息，这样可以实时记录和对方发生的小事情，可以是小争吵也可以是小惊喜，也可以把想对对方说的话存储下来，日后给对方听。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">作为家长角色的用户，我希望可以增加相册和相片，并且相册自己命名，和添加封面从而使相册实现分类和个性化。                                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">作为家长角色的用户，我希望可以删除相册和相片，以便于整理和记忆。                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">作为家长角色的用户，我希望可以修改相册的名称和封面，以便于我更好的整理和记忆。                                                                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望可以通过相册的名字查询出具体的相册，以便于我浏览；                                                                                                                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）朋友角色的用户，我希望可以增加相册和相片，并且相册可以自己命名，和添加封面从而使相册实现分类和个性化。                                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）朋友角色的用户，我希望可以删除相册和相片，以便于整理和记忆。                                                                                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）朋友角色的用户，我希望可以修改相册的名称和封面，以便于我更好的整理和记忆。                                                                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）朋友角色的用户，我希望可以通过相册的名字查询出具体的相册，以便于我浏览。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为家长角色的用户，我希望可以对相册进行增删改查、对照片进行添加和删除，以便于对相册进行管理和浏览。                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为男（女）朋友角色的用户，我希望可以对相册进行增删改查，对照片进行添加和删除，以便于对相册进行管理和浏览 。                 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，希望上传的录音文件支持MP3、MP4等多种形式，以便于我上传录音文件。                                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）朋友角色的用户，希望这个录音文件支持MP3、MP4等多种形式，以便于我上传录音文件。                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户我希望可以对录音文件进行增删查，以便于我管理和查询自己上传的语音。                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）朋友角色的用户我希望可以对录音文件进行增删查 ，便于我管理和查询自己上传的语音。                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">作为家长角色的用户我希望可以对录音文件进行自由命名，以便于我查询和实现个性化。              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）朋友角色的用户我希望可以对录音文件进行自由命名，以便于我查询和实现个性化。  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1  作为家长角色的用户，我希望可以上传的录音文件进行删除操作，以便于我管理和查询。                                                                                        1.3.2  作为家长角色的用户，我希望可以录音文件进行添加操作，以便于我记录和记忆。                                                                                                 1.3.3  作为家长角色的用户，我希望可以对上传的录音文件进行查询操作，以便于我查询和聆听语音。                                                                    1.4.1  作为男（女）朋友角色的用户，我希望可以上传的录音文件进行删除操作，以便于我管理和查询。                                                                                        1.4.2  作为男（女）朋友角色的用户，我希望可以录音文件进行添加操作，以便于我记录和记忆。                                                                                                 1.4.3  作为男（女）朋友角色的用户，我希望可以对上传的录音文件进行查询操作，以便于我查询和聆听语音。                                                                                      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望所写的关于孩子的日记中可以插入图片，还可以有精确的时间，以便于可以今后可以清楚的知道记录的场景，内容和时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在记录孩子成长的每个转折点时，自动获取当时的时间，以便于更加明确地看到孩子从稚嫩到成熟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在孩子成长的各个阶段记录孩子的身高体重，并且能够有一个清晰的曲线展示孩子的成长变化，以便于能够更加清晰地看到孩子的成长。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在孩子成长的各个阶段记录孩子的学业成就，并且能够有一个清晰的曲线展示孩子学业成绩的变化，以便于能够更加清晰地看到孩子的在各个阶段进步与否。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望所写的关于恋爱的日记中可以插入图片，还可以有精确的时间，以便于可以今后可以清楚的知道记录的场景，内容和时间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望可以把与对方相恋的每一个重要的日子记下来，自动获取当时的时间，并可以设置日期提醒，这样在今后的每一年都可以为对方准备小惊喜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望我们的相爱会很有仪式感，也希望我们的恋爱充满趣味，以便于我们的感情一天天升温，让我们的恋爱充满新鲜与欣喜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 作为家长角色的用户，我希望日记中插入的图片支持 jpg、png、jpeg等多种形式的，以便于我把相传的照片的全部都上传。               1.2 作为家长角色的用户，我希望可以修改记录的时间，以防止误输入后修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1 作为家长角色的用户，我希望上传的照片支持jpg格式，以便于我上传jpg形式的照片。                                                                                             1.1.2 作为家长角色的用户，我希望上传的照片支持jpg、png、jpeg等多种形式的，以便于我把相传的照片的全部都上传。                                              </t>
+  </si>
+  <si>
+    <t>1.1 作为家长角色的用户，我希望可以记录下每个的阶段孩子的身高和体重，以便于我全方位了解他的成长情况。                                      1.2 作为家长角色的用户，我希望能够自动生成孩子的身高和体重曲线，以便于我直观的了解变化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 作为家长角色的用户，我希望可以记录下每个的阶段孩子的学业情况和获奖情况，以便于我全方位了解他的成长情况。                                      1.2 作为家长角色的用户，我希望能够自动生成孩子各科的成绩变化曲线，以便于我直观的了解变化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 作为男（女） 朋友角色的用户，我希望日记中可以插入我们的照片，以便于记录。                                                         1.2 1.1 作为男（女） 朋友角色的用户，我希望日记可以自动生成当天记录的时间，以便于记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 作为男（女） 朋友角色的用户，我希望可以把与对方相恋的每一个重要的日子记下来，并自动获取当时的时间，以便于记录和回忆。                                                         1.2 作为男（女） 朋友角色的用户，我希望记录下来的纪念日到那天，会有提醒功能，使我牢记不忘记。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +539,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +547,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +871,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project/scrum/记·得 小组项目/用户故事拆分.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事拆分.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreeFront\SoftWare\Group\software-engineering\project\scrum\记·得 小组项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E04E3C-5497-4B2C-84F1-F54D34E8850E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6FEE25-B8CC-4E0C-9C96-3F43EEF9CF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="330" windowWidth="16050" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>初始需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,483 @@
   </si>
   <si>
     <t>1.1 作为男（女） 朋友角色的用户，我希望可以把与对方相恋的每一个重要的日子记下来，并自动获取当时的时间，以便于记录和回忆。                                                         1.2 作为男（女） 朋友角色的用户，我希望记录下来的纪念日到那天，会有提醒功能，使我牢记不忘记。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在系统存储多个孩子的相关内容，并且可以自由切换，以便于管理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在误创建关系或者记录的时候可以有删除的功能，以便于记录更加准确。</t>
+  </si>
+  <si>
+    <t>作为家长，我希望系统可以自动统计创建了关系的孩子数量和信息，以便于对亲子记录有整体的认知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在添加的重要事件的日期系统可以进行提醒，以便于对孩子更好地教育；作为男（女）朋友，我希望可以在纪念日等重要日期，系统可以自动提醒，以便于为对方准备惊喜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以将孩子的成长情况通过曲线的形式呈现出来，以便于看出孩子在这个成长阶段身高体重的增长趋势是否符合标准的成长趋势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以将孩子的学习成绩以曲线的形式呈现出来，以便于更好地了解孩子的学习情况，以及了解孩子的成绩进步与否。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望可以找到适合情侣游玩的场所，以便于增进感情，让恋爱更加有意义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以和别的家长一起交流育儿经验，以便于让自己的孩子更加健康快乐地成长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望可以和别人分享我恋爱的喜悦，也希望看到别人恋爱的甜蜜瞬间，以便于说出爱，铭记爱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为家长角色的用户，我希望可以存储多个孩子的相关信息、可以进行切换、添加和删除，以便于对亲子关系进行管理。    </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1 作为家长角色的用户，我希望可以增加亲子，从而实现亲子的切换。                                                                               1.1.2 作为家长角色的用户，我希望可以删除亲子关系，以便于整理和记忆。                          1.1.3作为家长角色的用户，我希望可以通过点击亲子的名字切换到相应的亲子，以便于我浏览；                                                                                                                                                                                                       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为家长角色的用户，我希望可以存储多个孩子的相关信息、但在错误创建的时候，可以删除，保证记录的准确性。    </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望在存储多个孩子的相关信息之后、可以自动统计孩子的数量。    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望在存储多个孩子的相关信息之后、可以自动保存每个孩子的信息。 以便于对亲子的记录由明确的认知   </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为家长角色的用户，我希望在创建大事记的时候可以设置确定日期来提醒自己，以便对孩子进行教育。  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）朋友角色的用户，我希望在我已保存的纪念日中，自动提醒，以便恋情的顺利进行。  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望每次保存孩子的成长情况之后，系统会自动生成成长曲线，以便观察孩子的成长趋势。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望每次保存孩子的学习情况之后，系统会自动生成学习曲线，以便观察孩子的学习趋势。</t>
+    </r>
+  </si>
+  <si>
+    <t>作为家长，我希望系统可以为家长推荐合适的游玩场所，以便于亲子之间进行更多的互动与交流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望系统可以分析保存的亲子信息，自动推荐合适的游玩场所，和最新的的游玩场所。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为家长角色的用户，我希望不仅限于自己的亲子关系，可以和其他家长进行交流，以便于让自己的孩子更加快乐的成长。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）朋友角色的用户，我希望系统可以分析保存的爱人信息，自动推荐合适的游玩场所，和最新的的游玩场所。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为男（女）角色的用户，我希望不仅限于自己的爱人关系，可以和其他人进行评论，点赞，交流，以便于说出爱。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1作为男（女）朋友，我希望恋爱充满趣味，希望系统给我们提供任务，我们像打怪升级完成任务，以便于恋爱充满新鲜和欣喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为家长角色的用户，我希望不仅限于自己的亲子关系，可以和其他人实现交流，以便于开阔自己的眼界。 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       作为家长角色的用户，我希望不仅限于自己的亲子关系，不仅仅自己可以发动态，可以看到他人分享的动态，以便于分享自己的喜乐    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  1.1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        作为家长角色的用户，我希望不仅限于自己的亲子关系，可以看到他人分享的动态并进行点赞和评论，以便于获得满足感和幸福感。                        </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）角色的用户，我希望不仅限于自己的爱人关系，可以和其他人实现交流，以便于倾诉。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1.1.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       作为男（女）角色的用户，我希望不仅限于自己的爱人关系，不仅仅自己可以发动态，可以看到他人分享的动态，以便于分享自己的洗乐和了解他人      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       作为男（女）角色的用户，我希望不仅限于自己的爱人关系，可以看到他人分享的动态并进行点赞和评论，以便于获得满足感和幸福感                                                                                                             </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -591,6 +1068,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,22 +1352,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="60" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -901,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -915,7 +1395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="327.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="280" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -929,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -943,7 +1423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -955,7 +1435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -967,7 +1447,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -979,7 +1459,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="84" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -991,7 +1471,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="126" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -1003,31 +1483,148 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>11</v>
-      </c>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>12</v>
-      </c>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/project/scrum/记·得 小组项目/用户故事拆分.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事拆分.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreeFront\SoftWare\Group\software-engineering\project\scrum\记·得 小组项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6FEE25-B8CC-4E0C-9C96-3F43EEF9CF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB847C2-D2E6-4A8C-8A67-E91A869D918E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="330" windowWidth="16050" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1  作为家长角色的用户，我希望可以上传的录音文件进行删除操作，以便于我管理和查询。                                                                                        1.3.2  作为家长角色的用户，我希望可以录音文件进行添加操作，以便于我记录和记忆。                                                                                                 1.3.3  作为家长角色的用户，我希望可以对上传的录音文件进行查询操作，以便于我查询和聆听语音。                                                                    1.4.1  作为男（女）朋友角色的用户，我希望可以上传的录音文件进行删除操作，以便于我管理和查询。                                                                                        1.4.2  作为男（女）朋友角色的用户，我希望可以录音文件进行添加操作，以便于我记录和记忆。                                                                                                 1.4.3  作为男（女）朋友角色的用户，我希望可以对上传的录音文件进行查询操作，以便于我查询和聆听语音。                                                                                      </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作为家长，我希望所写的关于孩子的日记中可以插入图片，还可以有精确的时间，以便于可以今后可以清楚的知道记录的场景，内容和时间。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,33 +439,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.1 作为家长角色的用户，我希望日记中插入的图片支持 jpg、png、jpeg等多种形式的，以便于我把相传的照片的全部都上传。               1.2 作为家长角色的用户，我希望可以修改记录的时间，以防止误输入后修改。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.1.1 作为家长角色的用户，我希望上传的照片支持jpg格式，以便于我上传jpg形式的照片。                                                                                             1.1.2 作为家长角色的用户，我希望上传的照片支持jpg、png、jpeg等多种形式的，以便于我把相传的照片的全部都上传。                                              </t>
-  </si>
-  <si>
-    <t>1.1 作为家长角色的用户，我希望可以记录下每个的阶段孩子的身高和体重，以便于我全方位了解他的成长情况。                                      1.2 作为家长角色的用户，我希望能够自动生成孩子的身高和体重曲线，以便于我直观的了解变化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1 作为家长角色的用户，我希望可以记录下每个的阶段孩子的学业情况和获奖情况，以便于我全方位了解他的成长情况。                                      1.2 作为家长角色的用户，我希望能够自动生成孩子各科的成绩变化曲线，以便于我直观的了解变化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1 作为男（女） 朋友角色的用户，我希望日记中可以插入我们的照片，以便于记录。                                                         1.2 1.1 作为男（女） 朋友角色的用户，我希望日记可以自动生成当天记录的时间，以便于记录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1 作为男（女） 朋友角色的用户，我希望可以把与对方相恋的每一个重要的日子记下来，并自动获取当时的时间，以便于记录和回忆。                                                         1.2 作为男（女） 朋友角色的用户，我希望记录下来的纪念日到那天，会有提醒功能，使我牢记不忘记。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作为家长，我希望可以在系统存储多个孩子的相关内容，并且可以自由切换，以便于管理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,10 +778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1作为男（女）朋友，我希望恋爱充满趣味，希望系统给我们提供任务，我们像打怪升级完成任务，以便于恋爱充满新鲜和欣喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -943,6 +912,482 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">       作为男（女）角色的用户，我希望不仅限于自己的爱人关系，可以看到他人分享的动态并进行点赞和评论，以便于获得满足感和幸福感                                                                                                             </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为家长角色的用户，我希望可以上传的录音文件进行删除操作，以便于我管理和查询。                                                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.3.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望可以录音文件进行添加操作，以便于我记录和记忆。                                                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.3.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望可以对上传的录音文件进行查询操作，以便于我查询和聆听语音。                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.4.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为男（女）朋友角色的用户，我希望可以上传的录音文件进行删除操作，以便于我管理和查询。                                                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.4.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女）朋友角色的用户，我希望可以录音文件进行添加操作，以便于我记录和记忆。                                                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.4.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  作为男（女）朋友角色的用户，我希望可以对上传的录音文件进行查询操作，以便于我查询和聆听语音。                                                                                      </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望上传的照片支持jpg格式，以便于我上传jpg形式的照片。                                                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望上传的照片支持jpg、png、jpeg等多种形式的，以便于我把相传的照片的全部都上传。                                              </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">作为家长角色的用户，我希望日记中插入的图片支持 jpg、png、jpeg等多种形式的，以便于我把相传的照片的全部都上传。               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望可以修改记录的时间，以防止误输入后修改。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">作为家长角色的用户，我希望可以记录下每个的阶段孩子的身高和体重，以便于我全方位了解他的成长情况。                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望能够自动生成孩子的身高和体重曲线，以便于我直观的了解变化。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望可以记录下每个的阶段孩子的学业情况和获奖情况，以便于我全方位了解他的成长情况。                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为家长角色的用户，我希望能够自动生成孩子各科的成绩变化曲线，以便于我直观的了解变化。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女） 朋友角色的用户，我希望日记中可以插入我们的照片，以便于记录。                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女） 朋友角色的用户，我希望日记可以自动生成当天记录的时间，以便于记录。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女） 朋友角色的用户，我希望可以把与对方相恋的每一个重要的日子记下来，并自动获取当时的时间，以便于记录和回忆。                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作为男（女） 朋友角色的用户，我希望记录下来的纪念日到那天，会有提醒功能，使我牢记不忘记。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作为男（女）朋友角色的用户，我希望系统能提供一些促进感情的任务，以便于用户打卡实现；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作为男（女）朋友角色的用户，我希望完成任务后能把这个图标点亮，以便于我回忆，记录</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1354,20 +1799,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="60" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1381,7 +1826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1395,7 +1840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="280" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="285" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1405,225 +1850,225 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/project/scrum/记·得 小组项目/用户故事拆分.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事拆分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreeFront\SoftWare\Group\software-engineering\project\scrum\记·得 小组项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB847C2-D2E6-4A8C-8A67-E91A869D918E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E4FF3-CC89-41F1-B327-BF7071EFCC76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1740" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>初始需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1389,6 +1389,85 @@
       </rPr>
       <t>作为男（女）朋友角色的用户，我希望完成任务后能把这个图标点亮，以便于我回忆，记录</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>云相册存储照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音记事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子大事记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子成长记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子学业记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人纪念日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理亲子关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计亲子记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要日期提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长曲线显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学业曲线显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子游玩推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子经验交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人游玩推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人恋爱分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1475,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1452,16 +1531,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1484,11 +1588,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1517,9 +1637,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{0BE2D88A-24EC-4FE4-9D35-F05B74F29AB2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1797,277 +1924,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="21.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="285" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="285" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>39</v>
       </c>
     </row>
